--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2025/61_Nevşehir_2025.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2025/61_Nevşehir_2025.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B2180C2-B623-42BF-8558-EE3944BF8F40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{94FF948E-BA9B-4D81-B525-BBD7CDEB7E47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="660" xr2:uid="{92671E0A-FC80-4DEF-904F-CA0538D885EA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="660" xr2:uid="{61FDB3D2-DD6A-4380-BB87-33011926768F}"/>
   </bookViews>
   <sheets>
     <sheet name="HAZİRAN" sheetId="140" r:id="rId1"/>
@@ -842,14 +842,14 @@
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{A91C1525-BB60-472E-8171-3232F153C246}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{4C377DA3-0C75-481D-9058-76124F10BC7D}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{20AEB35D-E782-498D-AB6F-A31FFA917502}"/>
-    <cellStyle name="Normal 3 2" xfId="4" xr:uid="{A4730DA0-DEA3-40D2-8EDE-EFA343617C24}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{5BB2BEE4-7735-45AC-AA30-B8E6504883DD}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{30E97DB7-C2E5-4EA1-AA9C-FC62C3D786F0}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{640BE563-7E57-4E92-B330-9E407BDEAEFB}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{01186411-9D1A-43CA-8AA8-8B9739F58FAD}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{2A66A8FA-272A-4547-9F3B-D51553FCCF5B}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{280FAC6F-9A0A-4686-A998-DB4D96241EEF}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{9894C5BB-1917-4329-82A2-92F662396E30}"/>
+    <cellStyle name="Normal 3 2" xfId="4" xr:uid="{DBBF50D9-AE68-4FD0-90BB-458791B42979}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{59BC0957-283E-4869-828D-3805B58BA3D2}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{61222804-D85D-4692-87B3-58729B57F07E}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{9ABC0121-98D4-4974-89EF-774956FC4CD6}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{2FA2A1D1-12E6-438A-A76B-99F28B2D03E6}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1219,7 +1219,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DF80D08-4139-4741-9A00-FDA943C6D852}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C037FE26-BC36-47BF-BBE2-2CC1347BAE8A}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2478,7 +2478,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5562411-CB83-4672-AB6F-591668272C28}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{783DD843-165A-492F-9050-1023F9EA3216}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3737,7 +3737,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D51E2E4D-209F-4DF8-9AA3-7720C05291CD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75830ACF-C411-4EB1-AC00-B574EE3FD5A0}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -4994,7 +4994,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CFE91E9-3253-4B7B-A397-170C240343DD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5256DAF6-2A35-4307-AB44-E35792CEF36B}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6253,7 +6253,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A029B1D-5F78-4FCD-83DB-F3AE7695C22F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6DF1488-A5C8-4422-A516-5678A0AC232D}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7496,7 +7496,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAA3DF05-55E8-497F-BD79-BFA03D8E3CF5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B306DB0F-FE04-462E-BD11-63E155C0C827}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
